--- a/file_list.xlsx
+++ b/file_list.xlsx
@@ -1,45 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/drugbankdatabase/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6E6A65-D7EB-DA4B-8297-EACD0AC6A1C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="14400" xr2:uid="{1C10B42B-74B8-AA41-816B-2FD166C7C0A2}"/>
+    <workbookView windowWidth="27555" windowHeight="13635"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156">
   <si>
     <t>file name</t>
   </si>
   <si>
-    <t>creation</t>
+    <t>date created</t>
   </si>
   <si>
     <t>author</t>
@@ -54,6 +34,9 @@
     <t>DB00001</t>
   </si>
   <si>
+    <t>thy</t>
+  </si>
+  <si>
     <t>DB00002</t>
   </si>
   <si>
@@ -111,19 +94,412 @@
     <t>DB00020</t>
   </si>
   <si>
-    <t>thy</t>
+    <t>DB00021</t>
+  </si>
+  <si>
+    <t>DB00022</t>
+  </si>
+  <si>
+    <t>DB00023</t>
+  </si>
+  <si>
+    <t>DB00024</t>
+  </si>
+  <si>
+    <t>DB00025</t>
+  </si>
+  <si>
+    <t>DB00026</t>
+  </si>
+  <si>
+    <t>DB00027</t>
+  </si>
+  <si>
+    <t>DB00028</t>
+  </si>
+  <si>
+    <t>DB00029</t>
+  </si>
+  <si>
+    <t>DB00030</t>
+  </si>
+  <si>
+    <t>DB00031</t>
+  </si>
+  <si>
+    <t>DB00032</t>
+  </si>
+  <si>
+    <t>DB00033</t>
+  </si>
+  <si>
+    <t>DB00034</t>
+  </si>
+  <si>
+    <t>DB00035</t>
+  </si>
+  <si>
+    <t>DB00036</t>
+  </si>
+  <si>
+    <t>DB00037</t>
+  </si>
+  <si>
+    <t>DB00038</t>
+  </si>
+  <si>
+    <t>DB00039</t>
+  </si>
+  <si>
+    <t>DB00040</t>
+  </si>
+  <si>
+    <t>DB00041</t>
+  </si>
+  <si>
+    <t>DB00042</t>
+  </si>
+  <si>
+    <t>DB00043</t>
+  </si>
+  <si>
+    <t>DB00044</t>
+  </si>
+  <si>
+    <t>DB00045</t>
+  </si>
+  <si>
+    <t>DB00046</t>
+  </si>
+  <si>
+    <t>DB00047</t>
+  </si>
+  <si>
+    <t>DB00048</t>
+  </si>
+  <si>
+    <t>DB00049</t>
+  </si>
+  <si>
+    <t>DB00050</t>
+  </si>
+  <si>
+    <t>DB00051</t>
+  </si>
+  <si>
+    <t>DB00052</t>
+  </si>
+  <si>
+    <t>DB00053</t>
+  </si>
+  <si>
+    <t>DB00054</t>
+  </si>
+  <si>
+    <t>DB00055</t>
+  </si>
+  <si>
+    <t>DB00056</t>
+  </si>
+  <si>
+    <t>DB00057</t>
+  </si>
+  <si>
+    <t>DB00058</t>
+  </si>
+  <si>
+    <t>DB00059</t>
+  </si>
+  <si>
+    <t>DB00060</t>
+  </si>
+  <si>
+    <t>DB00061</t>
+  </si>
+  <si>
+    <t>DB00062</t>
+  </si>
+  <si>
+    <t>DB00063</t>
+  </si>
+  <si>
+    <t>DB00064</t>
+  </si>
+  <si>
+    <t>DB00065</t>
+  </si>
+  <si>
+    <t>DB00066</t>
+  </si>
+  <si>
+    <t>DB00067</t>
+  </si>
+  <si>
+    <t>DB00068</t>
+  </si>
+  <si>
+    <t>DB00069</t>
+  </si>
+  <si>
+    <t>DB00070</t>
+  </si>
+  <si>
+    <t>DB00071</t>
+  </si>
+  <si>
+    <t>DB00072</t>
+  </si>
+  <si>
+    <t>DB00073</t>
+  </si>
+  <si>
+    <t>DB00074</t>
+  </si>
+  <si>
+    <t>DB00075</t>
+  </si>
+  <si>
+    <t>DB00076</t>
+  </si>
+  <si>
+    <t>DB00077</t>
+  </si>
+  <si>
+    <t>DB00078</t>
+  </si>
+  <si>
+    <t>DB00079</t>
+  </si>
+  <si>
+    <t>DB00080</t>
+  </si>
+  <si>
+    <t>DB00081</t>
+  </si>
+  <si>
+    <t>DB00082</t>
+  </si>
+  <si>
+    <t>DB00083</t>
+  </si>
+  <si>
+    <t>DB00084</t>
+  </si>
+  <si>
+    <t>DB00085</t>
+  </si>
+  <si>
+    <t>DB00086</t>
+  </si>
+  <si>
+    <t>DB00087</t>
+  </si>
+  <si>
+    <t>DB00088</t>
+  </si>
+  <si>
+    <t>DB00089</t>
+  </si>
+  <si>
+    <t>DB00090</t>
+  </si>
+  <si>
+    <t>DB00091</t>
+  </si>
+  <si>
+    <t>DB00092</t>
+  </si>
+  <si>
+    <t>DB00093</t>
+  </si>
+  <si>
+    <t>DB00094</t>
+  </si>
+  <si>
+    <t>DB00095</t>
+  </si>
+  <si>
+    <t>DB00096</t>
+  </si>
+  <si>
+    <t>DB00097</t>
+  </si>
+  <si>
+    <t>DB00098</t>
+  </si>
+  <si>
+    <t>DB00099</t>
+  </si>
+  <si>
+    <t>DB00100</t>
+  </si>
+  <si>
+    <t>DB00101</t>
+  </si>
+  <si>
+    <t>DB00102</t>
+  </si>
+  <si>
+    <t>DB00103</t>
+  </si>
+  <si>
+    <t>DB00104</t>
+  </si>
+  <si>
+    <t>DB00105</t>
+  </si>
+  <si>
+    <t>DB00106</t>
+  </si>
+  <si>
+    <t>DB00107</t>
+  </si>
+  <si>
+    <t>DB00108</t>
+  </si>
+  <si>
+    <t>DB00109</t>
+  </si>
+  <si>
+    <t>DB00110</t>
+  </si>
+  <si>
+    <t>DB00111</t>
+  </si>
+  <si>
+    <t>DB00112</t>
+  </si>
+  <si>
+    <t>DB00113</t>
+  </si>
+  <si>
+    <t>DB00114</t>
+  </si>
+  <si>
+    <t>DB00115</t>
+  </si>
+  <si>
+    <t>DB00116</t>
+  </si>
+  <si>
+    <t>DB00117</t>
+  </si>
+  <si>
+    <t>DB00118</t>
+  </si>
+  <si>
+    <t>DB00119</t>
+  </si>
+  <si>
+    <t>DB00120</t>
+  </si>
+  <si>
+    <t>DB00121</t>
+  </si>
+  <si>
+    <t>DB00122</t>
+  </si>
+  <si>
+    <t>DB00123</t>
+  </si>
+  <si>
+    <t>DB00124</t>
+  </si>
+  <si>
+    <t>DB00125</t>
+  </si>
+  <si>
+    <t>DB00126</t>
+  </si>
+  <si>
+    <t>DB00127</t>
+  </si>
+  <si>
+    <t>DB00128</t>
+  </si>
+  <si>
+    <t>DB00129</t>
+  </si>
+  <si>
+    <t>DB00130</t>
+  </si>
+  <si>
+    <t>DB00131</t>
+  </si>
+  <si>
+    <t>DB00132</t>
+  </si>
+  <si>
+    <t>DB00133</t>
+  </si>
+  <si>
+    <t>DB00134</t>
+  </si>
+  <si>
+    <t>DB00135</t>
+  </si>
+  <si>
+    <t>DB00136</t>
+  </si>
+  <si>
+    <t>DB00137</t>
+  </si>
+  <si>
+    <t>DB00138</t>
+  </si>
+  <si>
+    <t>DB00139</t>
+  </si>
+  <si>
+    <t>DB00140</t>
+  </si>
+  <si>
+    <t>DB00141</t>
+  </si>
+  <si>
+    <t>DB00142</t>
+  </si>
+  <si>
+    <t>DB00143</t>
+  </si>
+  <si>
+    <t>DB00144</t>
+  </si>
+  <si>
+    <t>DB00145</t>
+  </si>
+  <si>
+    <t>DB00146</t>
+  </si>
+  <si>
+    <t>DB00147</t>
+  </si>
+  <si>
+    <t>DB00148</t>
+  </si>
+  <si>
+    <t>DB00149</t>
+  </si>
+  <si>
+    <t>DB00150</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -131,7 +507,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -139,25 +515,356 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -165,32 +872,321 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -239,7 +1235,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -272,26 +1268,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -324,23 +1303,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -482,29 +1444,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AD897D7-7440-FC4E-96F2-33B8E9D7D4F7}">
-  <dimension ref="A1:G101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="7" width="16.1640625" style="1" customWidth="1"/>
+    <col min="2" max="7" width="16.1666666666667" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" ht="18.75" spans="2:7">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -520,8 +1477,9 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -532,877 +1490,2297 @@
         <v>44541</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="4">
         <v>44541</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="4">
         <v>44541</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="4">
         <v>44541</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" s="4">
         <v>44541</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" s="4">
         <v>44541</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" s="4">
         <v>44541</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" s="4">
         <v>44541</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" s="4">
         <v>44541</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11" s="4">
         <v>44541</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C12" s="4">
         <v>44541</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C13" s="4">
         <v>44541</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C14" s="4">
         <v>44541</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15" s="4">
         <v>44541</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C16" s="4">
         <v>44541</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C17" s="4">
         <v>44541</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C18" s="4">
         <v>44541</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C19" s="4">
         <v>44541</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C20" s="4">
         <v>44541</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" s="4">
-        <v>44541</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>25</v>
+        <v>44512</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B22" s="3"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="3"/>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B23" s="3"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="3"/>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B24" s="3"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="3"/>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B25" s="3"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="3"/>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B26" s="3"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="3"/>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B27" s="3"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="3"/>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B28" s="3"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="3"/>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B29" s="3"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="3"/>
+    <row r="29" spans="1:6">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B30" s="3"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="3"/>
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B31" s="3"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="3"/>
+    <row r="31" spans="1:6">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B32" s="3"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="3"/>
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B33" s="3"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="3"/>
+    <row r="33" spans="1:6">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B34" s="3"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="3"/>
+    <row r="34" spans="1:6">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B35" s="3"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="3"/>
+    <row r="35" spans="1:6">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B36" s="3"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="3"/>
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B37" s="3"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="3"/>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B38" s="3"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="3"/>
+    <row r="38" spans="1:6">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B39" s="3"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="3"/>
+    <row r="39" spans="1:6">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B40" s="3"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="3"/>
+    <row r="40" spans="1:6">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B41" s="3"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="3"/>
+    <row r="41" spans="1:6">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B42" s="3"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="3"/>
+    <row r="42" spans="1:6">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B43" s="3"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="3"/>
+    <row r="43" spans="1:6">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B44" s="3"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="3"/>
+    <row r="44" spans="1:6">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B45" s="3"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="3"/>
+    <row r="45" spans="1:6">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B46" s="3"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="3"/>
+    <row r="46" spans="1:6">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B47" s="3"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="3"/>
+    <row r="47" spans="1:6">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B48" s="3"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="3"/>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B49" s="3"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="3"/>
+    <row r="49" spans="1:6">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B50" s="3"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="3"/>
+    <row r="50" spans="1:6">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B51" s="3"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="3"/>
+    <row r="51" spans="1:6">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B52" s="3"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="3"/>
+    <row r="52" spans="1:6">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B53" s="3"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="3"/>
+    <row r="53" spans="1:6">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B54" s="3"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="3"/>
+    <row r="54" spans="1:6">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B55" s="3"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="3"/>
+    <row r="55" spans="1:6">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B56" s="3"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="3"/>
+    <row r="56" spans="1:6">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B57" s="3"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="3"/>
+    <row r="57" spans="1:6">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C57" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B58" s="3"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="3"/>
+    <row r="58" spans="1:6">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C58" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B59" s="3"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="3"/>
+    <row r="59" spans="1:6">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C59" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B60" s="3"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="3"/>
+    <row r="60" spans="1:6">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C60" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B61" s="3"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="3"/>
+    <row r="61" spans="1:6">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C61" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B62" s="3"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="3"/>
+    <row r="62" spans="1:6">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C62" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B63" s="3"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="3"/>
+    <row r="63" spans="1:6">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C63" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B64" s="3"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="3"/>
+    <row r="64" spans="1:6">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C64" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B65" s="3"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="3"/>
+    <row r="65" spans="1:6">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C65" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B66" s="3"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="3"/>
+    <row r="66" spans="1:6">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C66" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B67" s="3"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="3"/>
+    <row r="67" spans="1:6">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C67" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B68" s="3"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="3"/>
+    <row r="68" spans="1:6">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C68" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B69" s="3"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="3"/>
+    <row r="69" spans="1:6">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C69" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B70" s="3"/>
-      <c r="C70" s="4"/>
-      <c r="D70" s="3"/>
+    <row r="70" spans="1:6">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C70" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B71" s="3"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="3"/>
+    <row r="71" spans="1:6">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C71" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B72" s="3"/>
-      <c r="C72" s="4"/>
-      <c r="D72" s="3"/>
+    <row r="72" spans="1:6">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C72" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B73" s="3"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="3"/>
+    <row r="73" spans="1:6">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C73" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B74" s="3"/>
-      <c r="C74" s="4"/>
-      <c r="D74" s="3"/>
+    <row r="74" spans="1:6">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C74" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B75" s="3"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="3"/>
+    <row r="75" spans="1:6">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C75" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B76" s="3"/>
-      <c r="C76" s="4"/>
-      <c r="D76" s="3"/>
+    <row r="76" spans="1:6">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C76" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B77" s="3"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="3"/>
+    <row r="77" spans="1:6">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C77" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B78" s="3"/>
-      <c r="C78" s="4"/>
-      <c r="D78" s="3"/>
+    <row r="78" spans="1:6">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C78" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B79" s="3"/>
-      <c r="C79" s="4"/>
-      <c r="D79" s="3"/>
+    <row r="79" spans="1:6">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C79" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B80" s="3"/>
-      <c r="C80" s="4"/>
-      <c r="D80" s="3"/>
+    <row r="80" spans="1:6">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C80" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B81" s="3"/>
-      <c r="C81" s="4"/>
-      <c r="D81" s="3"/>
+    <row r="81" spans="1:6">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C81" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B82" s="3"/>
-      <c r="C82" s="4"/>
-      <c r="D82" s="3"/>
+    <row r="82" spans="1:6">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C82" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B83" s="3"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="3"/>
+    <row r="83" spans="1:6">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C83" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B84" s="3"/>
-      <c r="C84" s="4"/>
-      <c r="D84" s="3"/>
+    <row r="84" spans="1:6">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C84" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B85" s="3"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="3"/>
+    <row r="85" spans="1:6">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C85" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="E85" s="3"/>
       <c r="F85" s="3"/>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B86" s="3"/>
-      <c r="C86" s="4"/>
-      <c r="D86" s="3"/>
+    <row r="86" spans="1:6">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C86" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B87" s="3"/>
-      <c r="C87" s="4"/>
-      <c r="D87" s="3"/>
+    <row r="87" spans="1:6">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C87" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B88" s="3"/>
-      <c r="C88" s="4"/>
-      <c r="D88" s="3"/>
+    <row r="88" spans="1:6">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C88" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B89" s="3"/>
-      <c r="C89" s="4"/>
-      <c r="D89" s="3"/>
+    <row r="89" spans="1:6">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C89" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="E89" s="3"/>
       <c r="F89" s="3"/>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B90" s="3"/>
-      <c r="C90" s="4"/>
-      <c r="D90" s="3"/>
+    <row r="90" spans="1:6">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C90" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="E90" s="3"/>
       <c r="F90" s="3"/>
     </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B91" s="3"/>
-      <c r="C91" s="4"/>
-      <c r="D91" s="3"/>
+    <row r="91" spans="1:6">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C91" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B92" s="3"/>
-      <c r="C92" s="4"/>
-      <c r="D92" s="3"/>
+    <row r="92" spans="1:6">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C92" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
     </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B93" s="3"/>
-      <c r="C93" s="4"/>
-      <c r="D93" s="3"/>
+    <row r="93" spans="1:6">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C93" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
     </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B94" s="3"/>
-      <c r="C94" s="4"/>
-      <c r="D94" s="3"/>
+    <row r="94" spans="1:6">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C94" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
     </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B95" s="3"/>
-      <c r="C95" s="4"/>
-      <c r="D95" s="3"/>
+    <row r="95" spans="1:6">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C95" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="E95" s="3"/>
       <c r="F95" s="3"/>
     </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B96" s="3"/>
-      <c r="C96" s="4"/>
-      <c r="D96" s="3"/>
+    <row r="96" spans="1:6">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C96" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B97" s="3"/>
-      <c r="C97" s="4"/>
-      <c r="D97" s="3"/>
+    <row r="97" spans="1:6">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C97" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="E97" s="3"/>
       <c r="F97" s="3"/>
     </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B98" s="3"/>
-      <c r="C98" s="4"/>
-      <c r="D98" s="3"/>
+    <row r="98" spans="1:6">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C98" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="E98" s="3"/>
       <c r="F98" s="3"/>
     </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B99" s="3"/>
-      <c r="C99" s="4"/>
-      <c r="D99" s="3"/>
+    <row r="99" spans="1:6">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C99" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="E99" s="3"/>
       <c r="F99" s="3"/>
     </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B100" s="3"/>
-      <c r="C100" s="4"/>
-      <c r="D100" s="3"/>
+    <row r="100" spans="1:6">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C100" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="E100" s="3"/>
       <c r="F100" s="3"/>
     </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B101" s="3"/>
-      <c r="C101" s="4"/>
-      <c r="D101" s="3"/>
+    <row r="101" spans="1:6">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C101" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="E101" s="3"/>
       <c r="F101" s="3"/>
     </row>
+    <row r="102" spans="1:4">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C102" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C103" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C104" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C105" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C106" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C107" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C108" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C109" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C110" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C111" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C112" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C113" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C114" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C115" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C116" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C117" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C118" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C119" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C120" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C121" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C122" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C123" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C124" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C125" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C126" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C127" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C128" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C129" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C130" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D130" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C131" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C132" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C133" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C134" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C135" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C136" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C137" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C138" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D138" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C139" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D139" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C140" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D140" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C141" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C142" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D142" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C143" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C144" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C145" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D145" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C146" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D146" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C147" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D147" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C148" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D148" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C149" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D149" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C150" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D150" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C151" s="4">
+        <v>44542</v>
+      </c>
+      <c r="D151" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>